--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -26,9 +26,6 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2013</t>
-  </si>
-  <si>
     <t>Residential</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>refrigeration with other appliances in our model and so disregard this difference.</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2014</t>
   </si>
 </sst>
 </file>
@@ -472,77 +472,77 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -573,18 +573,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>-0.15</v>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="21075" windowHeight="12840"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -32,9 +32,6 @@
     <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
   </si>
   <si>
-    <t>Residential Demand Module, Page 32</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>Commercial Demand Module, Page 43</t>
-  </si>
-  <si>
     <t>In the EIA source material, Residential elasticities are disaggregated by fuel,</t>
   </si>
   <si>
@@ -83,7 +77,22 @@
     <t>refrigeration with other appliances in our model and so disregard this difference.</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2014</t>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2015</t>
+  </si>
+  <si>
+    <t>Residential Demand Module, Page 29</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module, Page 42</t>
+  </si>
+  <si>
+    <t>biomass</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
@@ -472,7 +481,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,66 +501,62 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -560,80 +565,112 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
       </c>
       <c r="C2">
+        <v>-0.3</v>
+      </c>
+      <c r="D2">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>-0.15</v>
+      </c>
+      <c r="C3">
+        <v>-0.15</v>
+      </c>
+      <c r="D3">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>-0.15</v>
-      </c>
-      <c r="C3">
+      <c r="B4">
+        <v>-0.15</v>
+      </c>
+      <c r="C4">
+        <v>-0.15</v>
+      </c>
+      <c r="D4">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>-0.15</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>-0.15</v>
+      </c>
+      <c r="C5">
+        <v>-0.15</v>
+      </c>
+      <c r="D5">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>-0.15</v>
-      </c>
-      <c r="C5">
+      <c r="B6">
+        <v>-0.15</v>
+      </c>
+      <c r="C6">
+        <v>-0.15</v>
+      </c>
+      <c r="D6">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>-0.15</v>
-      </c>
-      <c r="C6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>-0.15</v>
+      </c>
+      <c r="C7">
+        <v>-0.15</v>
+      </c>
+      <c r="D7">
         <v>-0.25</v>
       </c>
     </row>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\EoBSDwEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8ADD6E-4547-4EEB-BEF0-822A37E766B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E861C5B-D0A9-4995-985E-E35FEDC8CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Commercial Demand Module, Page 10</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/CDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/rDM_Assumptions.pdf</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -183,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -206,22 +213,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180192</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56784</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>67057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80972309-8111-66BD-6A2F-004C02B7BC2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD44B5EF-D9AC-FE06-7866-DB89594A951B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -230,15 +237,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="209550"/>
-          <a:ext cx="6266667" cy="2923809"/>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="6087325" cy="2734057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -250,22 +263,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>21462</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161814</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B337E11D-1EDF-D3C7-1972-42AAF5A0D996}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A2935C-7788-A00C-0A39-E609CA2C7CC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -274,59 +287,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3800475"/>
-          <a:ext cx="6107937" cy="888889"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>37337</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>50552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EFCB07-1318-96ED-A6C6-059F652E193A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="4578350"/>
-          <a:ext cx="6104762" cy="1984127"/>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="6087325" cy="2333951"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -665,17 +640,17 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -683,77 +658,77 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -770,21 +745,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B545A04D-0C81-4573-BDE4-77F74558811D}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="6">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -802,18 +793,18 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -827,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -841,7 +832,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -855,7 +846,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -869,7 +860,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -883,7 +874,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -897,7 +888,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -911,7 +902,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -925,7 +916,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -939,7 +930,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -953,7 +944,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>

--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS US\InputData\bldgs\EoBSDwEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E861C5B-D0A9-4995-985E-E35FEDC8CA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344434C8-6702-4CA8-9A05-280406723E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -36,15 +36,9 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/residential.pdf</t>
-  </si>
-  <si>
     <t>Commercial</t>
   </si>
   <si>
-    <t>http://www.eia.gov/forecasts/aeo/assumptions/pdf/commercial.pdf</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -105,25 +99,25 @@
     <t>Elasticity by Fuel (dimensionless)</t>
   </si>
   <si>
-    <t>Assumptions to the Annual Energy Outlook 2022</t>
-  </si>
-  <si>
-    <t>Residential Demand Module, Page 9</t>
-  </si>
-  <si>
     <t>Residential Demand Module</t>
   </si>
   <si>
     <t>Commercial Demand Module</t>
   </si>
   <si>
-    <t>Commercial Demand Module, Page 10</t>
-  </si>
-  <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/CDM_Assumptions.pdf</t>
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/assumptions/pdf/rDM_Assumptions.pdf</t>
+  </si>
+  <si>
+    <t>Assumptions to the Annual Energy Outlook 2023</t>
+  </si>
+  <si>
+    <t>Residential Demand Module, Page 10</t>
+  </si>
+  <si>
+    <t>Commercial Demand Module, Page 12</t>
   </si>
 </sst>
 </file>
@@ -636,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,12 +654,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -675,22 +669,22 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,46 +694,42 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{EBAAB2B8-6D29-43EA-933D-85C23BAEEBB6}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{7E80EFC1-B2EB-4244-B4A6-20E4D9863C03}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -748,14 +738,14 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I1" s="6">
         <v>44986</v>
@@ -763,12 +753,12 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I20" s="6">
         <v>44986</v>
@@ -776,7 +766,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +783,7 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -806,21 +796,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -834,7 +824,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -848,7 +838,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -862,7 +852,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -876,7 +866,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -890,7 +880,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -904,7 +894,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>-0.15</v>
@@ -918,7 +908,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>-0.15</v>
@@ -932,7 +922,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>-0.15</v>
@@ -946,7 +936,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>-0.15</v>
